--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Notes</t>
   </si>
@@ -41,33 +41,180 @@
     <t>Source</t>
   </si>
   <si>
-    <t>http://www.jaycar.com.au/medias/XC4512-dataSheetMain.pdf?context=bWFzdGVyfGltYWdlc3w1MTM5Nzh8YXBwbGljYXRpb24vcGRmfGltYWdlcy9oNzAvaDk2Lzg4NzIyNTQ0MDY2ODYucGRmfDg5MzBhNGZjYTg5MDY2YWQ0NjdkMTZlYmY1ZGU0MDUxNWQwMWEzM2ZjYWU3NTQwMzg0YTgyZDMzY2ZjNWY1ZDU</t>
-  </si>
-  <si>
-    <t>DC/DC Converter - reverse engineer!</t>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>Microprocessor</t>
+  </si>
+  <si>
+    <t>Price (Single quantity)</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AURCT-ND</t>
+  </si>
+  <si>
+    <t>IC MCU 8BIT 32KB FLASH 32TQFP</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>IC USB 2.0 - UART 20SSOP</t>
+  </si>
+  <si>
+    <t>MCP2200T-I/SSCT-ND</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>296-39435-1-ND</t>
+  </si>
+  <si>
+    <t>IC REG BOOST 5V 0.2A SYNC SC70-6</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>USB to UART chip - need to get a suitible connector as well!</t>
+  </si>
+  <si>
+    <t>Boost converter, needs Ls and Cs</t>
+  </si>
+  <si>
+    <t>DS1307Z+T&amp;RCT-ND</t>
+  </si>
+  <si>
+    <t>IC RTC CLK/CALENDAR I2C 8-SOIC</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>RTC Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>535-12051-1-ND</t>
+  </si>
+  <si>
+    <t>32.768kHz ±20ppm Crystal 12.5pF 50 kOhm -40°C ~ 85°C Surface Mount Cylindrical Can, Radial</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>16Mhz Clock</t>
+  </si>
+  <si>
+    <t>RTC Battery holder</t>
+  </si>
+  <si>
+    <t>LP2032SM-JJ-GCT-ND</t>
+  </si>
+  <si>
+    <t>LOW PROFILE HOLDER CR2032 SMD</t>
+  </si>
+  <si>
+    <t>IC5</t>
+  </si>
+  <si>
+    <t>AT24C128C-SSHM-TCT-ND</t>
+  </si>
+  <si>
+    <t>IC EEPROM 128KBIT 1MHZ 8SOIC</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t>CRYSTAL 16.0000MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>535-10226-1-ND</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>67-1781-ND</t>
+  </si>
+  <si>
+    <t>LCD MODULE 16X2 CHARACTER</t>
+  </si>
+  <si>
+    <t>16X2 No-backlight display</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Oshpark</t>
+  </si>
+  <si>
+    <t>Guess</t>
+  </si>
+  <si>
+    <t>Enclosure</t>
+  </si>
+  <si>
+    <t>Passives - estimates</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Guestimate BOM</t>
+  </si>
+  <si>
+    <t>Sell cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -75,17 +222,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -99,13 +284,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0">
-  <autoFilter ref="A1:E1048576"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0">
+  <autoFilter ref="A1:F1048576"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Part ID"/>
     <tableColumn id="2" name="Part Number"/>
     <tableColumn id="3" name="Description"/>
     <tableColumn id="4" name="Source"/>
+    <tableColumn id="6" name="Price (Single quantity)" dataDxfId="0"/>
     <tableColumn id="5" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -375,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -387,10 +573,11 @@
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -403,16 +590,253 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
+    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11.33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E2:E14)</f>
+        <v>64.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E15*3.14</f>
+        <v>203.59760000000003</v>
       </c>
     </row>
   </sheetData>
